--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873095229994" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730967791886" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730967851892" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730968441892" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730969072242" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912252432835" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291228611419" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912286134226" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912286604152" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912287374177" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730951909547.csv</t>
+          <t>go_stims-1650291225190284.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873095212992.csv</t>
+          <t>GNG_stims-16502912252102845.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730952149622.csv</t>
+          <t>go_stims-16502912252122889.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873095228993.csv</t>
+          <t>GNG_stims-16502912252422876.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730958922255.csv</t>
+          <t>ZB-match_2-16502912260002549.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730967591882.csv</t>
+          <t>OB-16502912264612596.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730956371899.csv</t>
+          <t>ZB-match_9-16502912253562834.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1649873095824224.csv</t>
+          <t>TB-16502912278591902.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730952930815.csv</t>
+          <t>OB-16502912267671556.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498730966801898.csv</t>
+          <t>ZB-match_7-1650291225779256.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-1649873095478892.csv</t>
+          <t>TB-16502912268541558.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730954349139.csv</t>
+          <t>TB-16502912285914211.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1649873096481219.csv</t>
+          <t>OB-16502912260452573.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730968111913.csv</t>
+          <t>MM_stims-16502912286274276.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730967871902.csv</t>
+          <t>ZM_stims-16502912286164148.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730968272243.csv</t>
+          <t>MM_stims-1650291228643449.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730968121889.csv</t>
+          <t>ZM_stims-16502912286284146.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730968432226.csv</t>
+          <t>MM_stims-16502912286594145.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873096828189.csv</t>
+          <t>ZM_stims-16502912286444182.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873096891225.csv</t>
+          <t>SAT_stims-16502912286644185.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730968602233.csv</t>
+          <t>vSAT_stims-16502912287064483.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873096847189.csv</t>
+          <t>vSAT_stims-16502912287224174.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730968752246.csv</t>
+          <t>SAT_stims-16502912286904147.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912252432835" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291228611419" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912286134226" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912286604152" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912287374177" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778502716854" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477852526959" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778525279262" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778525729594" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778526368186" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291225190284.csv</t>
+          <t>go_stims-1650477850236686.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912252102845.csv</t>
+          <t>GNG_stims-16504778502547188.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912252122889.csv</t>
+          <t>go_stims-16504778502566907.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912252422876.csv</t>
+          <t>GNG_stims-165047785027072.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912260002549.csv</t>
+          <t>OB-1650477851909924.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912264612596.csv</t>
+          <t>ZB-match_4-16504778506137214.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912253562834.csv</t>
+          <t>OB-16504778520089262.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912278591902.csv</t>
+          <t>OB-16504778518259592.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912267671556.csv</t>
+          <t>TB-16504778525059602.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650291225779256.csv</t>
+          <t>TB-1650477852077924.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912268541558.csv</t>
+          <t>ZB-match_8-16504778503026826.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912285914211.csv</t>
+          <t>TB-16504778520439236.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912260452573.csv</t>
+          <t>ZB-match_9-16504778503836865.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912286274276.csv</t>
+          <t>MM_stims-16504778525419292.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912286164148.csv</t>
+          <t>ZM_stims-16504778525289254.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291228643449.csv</t>
+          <t>MM_stims-16504778525579612.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912286284146.csv</t>
+          <t>ZM_stims-16504778525419292.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912286594145.csv</t>
+          <t>MM_stims-16504778525729594.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912286444182.csv</t>
+          <t>ZM_stims-16504778525579612.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912286644185.csv</t>
+          <t>vSAT_stims-16504778526048186.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912287064483.csv</t>
+          <t>SAT_stims-16504778525888197.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912287224174.csv</t>
+          <t>SAT_stims-16504778525769293.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912286904147.csv</t>
+          <t>vSAT_stims-16504778526208189.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778502716854" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477852526959" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778525279262" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778525729594" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778526368186" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961402435634" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961426195998" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961426195998" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961426675618" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961427315965" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477850236686.csv</t>
+          <t>go_stims-16509961402115612.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778502547188.csv</t>
+          <t>GNG_stims-16509961402275846.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778502566907.csv</t>
+          <t>go_stims-16509961402275846.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-165047785027072.csv</t>
+          <t>GNG_stims-16509961402435634.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477851909924.csv</t>
+          <t>TB-16509961426035974.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778506137214.csv</t>
+          <t>ZB-match_6-16509961406195607.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778520089262.csv</t>
+          <t>OB-1650996141363592.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778518259592.csv</t>
+          <t>TB-16509961421235595.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778525059602.csv</t>
+          <t>OB-16509961414835615.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650477852077924.csv</t>
+          <t>OB-1650996141259558.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504778503026826.csv</t>
+          <t>ZB-match_3-16509961411155593.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778520439236.csv</t>
+          <t>ZB-match_9-16509961404675975.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778503836865.csv</t>
+          <t>TB-16509961424035614.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778525419292.csv</t>
+          <t>MM_stims-16509961426355963.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778525289254.csv</t>
+          <t>ZM_stims-16509961426195998.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778525579612.csv</t>
+          <t>MM_stims-16509961426515956.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778525419292.csv</t>
+          <t>ZM_stims-16509961426355963.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778525729594.csv</t>
+          <t>MM_stims-16509961426675618.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778525579612.csv</t>
+          <t>ZM_stims-16509961426515956.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778526048186.csv</t>
+          <t>SAT_stims-1650996142683595.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778525888197.csv</t>
+          <t>SAT_stims-16509961426675618.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778525769293.csv</t>
+          <t>vSAT_stims-16509961426995606.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778526208189.csv</t>
+          <t>vSAT_stims-16509961427156.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961402435634" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961426195998" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961426195998" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961426675618" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961427315965" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687400167465" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687418612833" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687418642373" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687419349778" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687420115108" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961402115612.csv</t>
+          <t>go_stims-16511687399821029.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961402275846.csv</t>
+          <t>GNG_stims-16511687399978545.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961402275846.csv</t>
+          <t>go_stims-16511687399999611.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961402435634.csv</t>
+          <t>GNG_stims-16511687400147474.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961426035974.csv</t>
+          <t>OB-16511687411080894.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961406195607.csv</t>
+          <t>TB-16511687417600527.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650996141363592.csv</t>
+          <t>OB-1651168741455329.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961421235595.csv</t>
+          <t>TB-16511687418370667.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961414835615.csv</t>
+          <t>ZB-match_0-16511687410673926.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650996141259558.csv</t>
+          <t>TB-165116874156039.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961411155593.csv</t>
+          <t>ZB-match_7-16511687404791982.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961404675975.csv</t>
+          <t>OB-1651168741251309.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961424035614.csv</t>
+          <t>ZB-match_1-16511687409267058.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961426355963.csv</t>
+          <t>MM_stims-16511687418889785.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961426195998.csv</t>
+          <t>ZM_stims-16511687418672867.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961426515956.csv</t>
+          <t>MM_stims-16511687419186788.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961426355963.csv</t>
+          <t>ZM_stims-16511687418899803.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961426675618.csv</t>
+          <t>MM_stims-16511687419340112.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961426515956.csv</t>
+          <t>ZM_stims-16511687419196737.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996142683595.csv</t>
+          <t>SAT_stims-16511687419392078.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961426675618.csv</t>
+          <t>vSAT_stims-1651168741996684.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961426995606.csv</t>
+          <t>vSAT_stims-1651168741966365.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961427156.csv</t>
+          <t>SAT_stims-16511687419507759.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687400167465" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687418612833" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687418642373" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687419349778" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687420115108" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555675267024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555695848374" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255569586839" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555696484015" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255569720862" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687399821029.csv</t>
+          <t>go_stims-16512555674960942.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687399978545.csv</t>
+          <t>GNG_stims-16512555675100548.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687399999611.csv</t>
+          <t>go_stims-1651255567511055.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687400147474.csv</t>
+          <t>GNG_stims-16512555675257034.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687411080894.csv</t>
+          <t>ZB-match_6-1651255567636856.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687417600527.csv</t>
+          <t>OB-16512555679069927.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168741455329.csv</t>
+          <t>TB-1651255569563162.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687418370667.csv</t>
+          <t>ZB-match_5-16512555675697546.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687410673926.csv</t>
+          <t>ZB-match_5-16512555676640444.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-165116874156039.csv</t>
+          <t>TB-1651255568804532.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687404791982.csv</t>
+          <t>TB-16512555693977525.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168741251309.csv</t>
+          <t>OB-16512555678440838.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687409267058.csv</t>
+          <t>OB-16512555677369988.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687418889785.csv</t>
+          <t>MM_stims-16512555696156812.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687418672867.csv</t>
+          <t>ZM_stims-16512555695937574.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687419186788.csv</t>
+          <t>MM_stims-1651255569631853.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687418899803.csv</t>
+          <t>ZM_stims-16512555696166816.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687419340112.csv</t>
+          <t>MM_stims-1651255569647399.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687419196737.csv</t>
+          <t>ZM_stims-16512555696327174.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687419392078.csv</t>
+          <t>SAT_stims-16512555696742113.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168741996684.csv</t>
+          <t>SAT_stims-1651255569654583.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168741966365.csv</t>
+          <t>vSAT_stims-16512555696902192.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687419507759.csv</t>
+          <t>vSAT_stims-16512555697051325.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_30/participant_30_task_orders.xlsx
+++ b/participants/participant_30/participant_30_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555675267024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555695848374" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255569586839" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555696484015" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255569720862" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-1651588999806087" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889998502576" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515890024288406" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890024601283" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515890024601283" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555674960942.csv</t>
+          <t>SAT_stims-16515889997592113.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555675100548.csv</t>
+          <t>vSAT_stims-16515889997904606.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255567511055.csv</t>
+          <t>vSAT_stims-1651588999774835.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555675257034.csv</t>
+          <t>SAT_stims-1651588999743583.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889998217103.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588999806087.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889998346305.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889998230846.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889998502576.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889998346305.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651255567636856.csv</t>
+          <t>TB-1651589002413251.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555679069927.csv</t>
+          <t>OB-16515890015442252.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255569563162.csv</t>
+          <t>TB-16515890019892068.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555675697546.csv</t>
+          <t>ZB-match_7-1651589000303104.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555676640444.csv</t>
+          <t>TB-16515890023350904.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651255568804532.csv</t>
+          <t>ZB-match_8-16515890003677714.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16512555693977525.csv</t>
+          <t>ZB-match_6-16515890000610185.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512555678440838.csv</t>
+          <t>OB-16515890017963827.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512555677369988.csv</t>
+          <t>OB-16515890013057544.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890024288406.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651589002444465.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651589002444465.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890024601283.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,156 +801,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555696156812.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555695937574.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255569631853.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555696166816.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255569647399.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555696327174.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512555696742113.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255569654583.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555696902192.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512555697051325.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>